--- a/result/TrailATRf/summary_NIKKEI_M30_2017-2024_0.xlsx
+++ b/result/TrailATRf/summary_NIKKEI_M30_2017-2024_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="22">
   <si>
     <t>count</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,31 +702,31 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2017</v>
+      </c>
+      <c r="F5">
+        <v>2024</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2017</v>
-      </c>
-      <c r="F5">
-        <v>2024</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
       <c r="H5">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I5">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J5">
         <v>300</v>
@@ -735,42 +735,42 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2994</v>
+        <v>5908</v>
       </c>
       <c r="M5">
-        <v>-4705</v>
+        <v>-5512</v>
       </c>
       <c r="N5">
-        <v>5494</v>
+        <v>5044</v>
       </c>
       <c r="O5">
-        <v>7699</v>
+        <v>11420</v>
       </c>
       <c r="P5">
-        <v>-730</v>
+        <v>-1109</v>
       </c>
       <c r="Q5">
-        <v>1743</v>
+        <v>2415</v>
       </c>
       <c r="R5">
-        <v>1.401346923917</v>
+        <v>2.264076130055511</v>
       </c>
       <c r="S5">
-        <v>150.0588611790495</v>
+        <v>156.5839359416006</v>
       </c>
       <c r="T5">
         <v>-25</v>
       </c>
       <c r="U5">
-        <v>0.2111394248270841</v>
+        <v>0.2081681205392546</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -785,57 +785,57 @@
         <v>2024</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>2.4</v>
       </c>
       <c r="I6">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>300</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>2613</v>
+        <v>2994</v>
       </c>
       <c r="M6">
-        <v>-4573</v>
+        <v>-4705</v>
       </c>
       <c r="N6">
-        <v>2443</v>
+        <v>5494</v>
       </c>
       <c r="O6">
-        <v>7186</v>
+        <v>7699</v>
       </c>
       <c r="P6">
-        <v>-1075</v>
+        <v>-730</v>
       </c>
       <c r="Q6">
-        <v>2169</v>
+        <v>1743</v>
       </c>
       <c r="R6">
-        <v>2.941465411379451</v>
+        <v>1.401346923917</v>
       </c>
       <c r="S6">
-        <v>219.7932927523237</v>
+        <v>150.0588611790495</v>
       </c>
       <c r="T6">
-        <v>-39</v>
+        <v>-25</v>
       </c>
       <c r="U6">
-        <v>0.2893982808022922</v>
+        <v>0.2111394248270841</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -850,57 +850,57 @@
         <v>2024</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J7">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>2475</v>
+        <v>2630</v>
       </c>
       <c r="M7">
-        <v>-3374</v>
+        <v>-6298</v>
       </c>
       <c r="N7">
-        <v>3343</v>
+        <v>1609</v>
       </c>
       <c r="O7">
-        <v>5849</v>
+        <v>8928</v>
       </c>
       <c r="P7">
-        <v>-1185</v>
+        <v>-795</v>
       </c>
       <c r="Q7">
-        <v>1693</v>
+        <v>3272</v>
       </c>
       <c r="R7">
-        <v>1.749626084355369</v>
+        <v>5.548788067122437</v>
       </c>
       <c r="S7">
-        <v>202.3959162657161</v>
+        <v>275.1503396276771</v>
       </c>
       <c r="T7">
-        <v>-35</v>
+        <v>-44</v>
       </c>
       <c r="U7">
-        <v>0.317379599162429</v>
+        <v>0.3213175885643257</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -915,57 +915,57 @@
         <v>2024</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="I8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J8">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1485</v>
+        <v>2613</v>
       </c>
       <c r="M8">
-        <v>-6485</v>
+        <v>-4573</v>
       </c>
       <c r="N8">
-        <v>4405</v>
+        <v>2443</v>
       </c>
       <c r="O8">
-        <v>7970</v>
+        <v>7186</v>
       </c>
       <c r="P8">
-        <v>-705</v>
+        <v>-1075</v>
       </c>
       <c r="Q8">
-        <v>2593</v>
+        <v>2169</v>
       </c>
       <c r="R8">
-        <v>1.809307604994325</v>
+        <v>2.941465411379451</v>
       </c>
       <c r="S8">
-        <v>176.7912226176395</v>
+        <v>219.7932927523237</v>
       </c>
       <c r="T8">
-        <v>-28</v>
+        <v>-39</v>
       </c>
       <c r="U8">
-        <v>0.1786606129398411</v>
+        <v>0.2893982808022922</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -980,57 +980,57 @@
         <v>2024</v>
       </c>
       <c r="G9">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>-1199</v>
+        <v>2475</v>
       </c>
       <c r="M9">
-        <v>-2853</v>
+        <v>-3374</v>
       </c>
       <c r="N9">
-        <v>1577</v>
+        <v>3343</v>
       </c>
       <c r="O9">
-        <v>1654</v>
+        <v>5849</v>
       </c>
       <c r="P9">
-        <v>-699</v>
+        <v>-1185</v>
       </c>
       <c r="Q9">
-        <v>2252</v>
+        <v>1693</v>
       </c>
       <c r="R9">
-        <v>1.048826886493342</v>
+        <v>1.749626084355369</v>
       </c>
       <c r="S9">
-        <v>266.9316448192611</v>
+        <v>202.3959162657161</v>
       </c>
       <c r="T9">
         <v>-35</v>
       </c>
       <c r="U9">
-        <v>0.4071020925808497</v>
+        <v>0.317379599162429</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1045,57 +1045,57 @@
         <v>2024</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>3.600000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="I10">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>-1471</v>
+        <v>1485</v>
       </c>
       <c r="M10">
-        <v>-8837</v>
+        <v>-6485</v>
       </c>
       <c r="N10">
-        <v>1461</v>
+        <v>4405</v>
       </c>
       <c r="O10">
-        <v>7366</v>
+        <v>7970</v>
       </c>
       <c r="P10">
-        <v>-526</v>
+        <v>-705</v>
       </c>
       <c r="Q10">
-        <v>2404</v>
+        <v>2593</v>
       </c>
       <c r="R10">
-        <v>5.041752224503765</v>
+        <v>1.809307604994325</v>
       </c>
       <c r="S10">
-        <v>283.4086912546165</v>
+        <v>176.7912226176395</v>
       </c>
       <c r="T10">
-        <v>-50</v>
+        <v>-28</v>
       </c>
       <c r="U10">
-        <v>0.3121149897330596</v>
+        <v>0.1786606129398411</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1110,57 +1110,57 @@
         <v>2024</v>
       </c>
       <c r="G11">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I11">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>-1749</v>
+        <v>-1199</v>
       </c>
       <c r="M11">
-        <v>-4211</v>
+        <v>-2853</v>
       </c>
       <c r="N11">
-        <v>4967</v>
+        <v>1577</v>
       </c>
       <c r="O11">
-        <v>2462</v>
+        <v>1654</v>
       </c>
       <c r="P11">
-        <v>-581</v>
+        <v>-699</v>
       </c>
       <c r="Q11">
-        <v>2470</v>
+        <v>2252</v>
       </c>
       <c r="R11">
-        <v>0.4956714314475539</v>
+        <v>1.048826886493342</v>
       </c>
       <c r="S11">
-        <v>156.268266840868</v>
+        <v>266.9316448192611</v>
       </c>
       <c r="T11">
-        <v>-22</v>
+        <v>-35</v>
       </c>
       <c r="U11">
-        <v>0.2166297563921885</v>
+        <v>0.4071020925808497</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1178,54 +1178,54 @@
         <v>60</v>
       </c>
       <c r="H12">
-        <v>2.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <v>200</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>-2890</v>
+        <v>-1471</v>
       </c>
       <c r="M12">
-        <v>-3422</v>
+        <v>-8837</v>
       </c>
       <c r="N12">
-        <v>931</v>
+        <v>1461</v>
       </c>
       <c r="O12">
-        <v>532</v>
+        <v>7366</v>
       </c>
       <c r="P12">
-        <v>-645</v>
+        <v>-526</v>
       </c>
       <c r="Q12">
-        <v>4403</v>
+        <v>2404</v>
       </c>
       <c r="R12">
-        <v>0.5714285714285714</v>
+        <v>5.041752224503765</v>
       </c>
       <c r="S12">
-        <v>330.4627098143953</v>
+        <v>283.4086912546165</v>
       </c>
       <c r="T12">
-        <v>-72</v>
+        <v>-50</v>
       </c>
       <c r="U12">
-        <v>0.3662728249194415</v>
+        <v>0.3121149897330596</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1240,57 +1240,57 @@
         <v>2024</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I13">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J13">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>-3425</v>
+        <v>-1749</v>
       </c>
       <c r="M13">
-        <v>-7094</v>
+        <v>-4211</v>
       </c>
       <c r="N13">
-        <v>1446</v>
+        <v>4967</v>
       </c>
       <c r="O13">
-        <v>3669</v>
+        <v>2462</v>
       </c>
       <c r="P13">
-        <v>-711</v>
+        <v>-581</v>
       </c>
       <c r="Q13">
-        <v>2098</v>
+        <v>2470</v>
       </c>
       <c r="R13">
-        <v>2.537344398340249</v>
+        <v>0.4956714314475539</v>
       </c>
       <c r="S13">
-        <v>283.2064423572867</v>
+        <v>156.268266840868</v>
       </c>
       <c r="T13">
-        <v>-49.5</v>
+        <v>-22</v>
       </c>
       <c r="U13">
-        <v>0.318118948824343</v>
+        <v>0.2166297563921885</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1305,57 +1305,57 @@
         <v>2024</v>
       </c>
       <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>2.8</v>
+      </c>
+      <c r="I14">
         <v>70</v>
       </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
       <c r="J14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>-5046</v>
+        <v>-2890</v>
       </c>
       <c r="M14">
-        <v>-4991</v>
+        <v>-3422</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>931</v>
       </c>
       <c r="O14">
-        <v>-55</v>
+        <v>532</v>
       </c>
       <c r="P14">
-        <v>-598</v>
+        <v>-645</v>
       </c>
       <c r="Q14">
-        <v>4925</v>
+        <v>4403</v>
       </c>
       <c r="R14">
-        <v>-0.55</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="S14">
-        <v>730.2772949366562</v>
+        <v>330.4627098143953</v>
       </c>
       <c r="T14">
-        <v>-100.5</v>
+        <v>-72</v>
       </c>
       <c r="U14">
-        <v>0.3</v>
+        <v>0.3662728249194415</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1370,57 +1370,57 @@
         <v>2024</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J15">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>-7318</v>
+        <v>-3234</v>
       </c>
       <c r="M15">
-        <v>-7410</v>
+        <v>-4667</v>
       </c>
       <c r="N15">
-        <v>2934</v>
+        <v>2429</v>
       </c>
       <c r="O15">
-        <v>92</v>
+        <v>1433</v>
       </c>
       <c r="P15">
-        <v>-1097</v>
+        <v>-691</v>
       </c>
       <c r="Q15">
-        <v>2022</v>
+        <v>2408</v>
       </c>
       <c r="R15">
-        <v>0.03135650988411725</v>
+        <v>0.5899547138740222</v>
       </c>
       <c r="S15">
-        <v>225.7706314416048</v>
+        <v>224.5549586045256</v>
       </c>
       <c r="T15">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="U15">
-        <v>0.3677573278800272</v>
+        <v>0.2758336764100453</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1435,57 +1435,57 @@
         <v>2024</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J16">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>-7508</v>
+        <v>-3425</v>
       </c>
       <c r="M16">
-        <v>-7817</v>
+        <v>-7094</v>
       </c>
       <c r="N16">
-        <v>1192</v>
+        <v>1446</v>
       </c>
       <c r="O16">
-        <v>309</v>
+        <v>3669</v>
       </c>
       <c r="P16">
-        <v>-887</v>
+        <v>-711</v>
       </c>
       <c r="Q16">
-        <v>2308</v>
+        <v>2098</v>
       </c>
       <c r="R16">
-        <v>0.2592281879194631</v>
+        <v>2.537344398340249</v>
       </c>
       <c r="S16">
-        <v>321.0616315033071</v>
+        <v>283.2064423572867</v>
       </c>
       <c r="T16">
-        <v>-47</v>
+        <v>-49.5</v>
       </c>
       <c r="U16">
-        <v>0.3582214765100671</v>
+        <v>0.318118948824343</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1500,57 +1500,57 @@
         <v>2024</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>-9566</v>
+        <v>-4234</v>
       </c>
       <c r="M17">
-        <v>-5250</v>
+        <v>-4511</v>
       </c>
       <c r="N17">
-        <v>2149</v>
+        <v>6564</v>
       </c>
       <c r="O17">
-        <v>-4316</v>
+        <v>277</v>
       </c>
       <c r="P17">
-        <v>-838</v>
+        <v>-581</v>
       </c>
       <c r="Q17">
-        <v>6266</v>
+        <v>1927</v>
       </c>
       <c r="R17">
-        <v>-2.008375988832015</v>
+        <v>0.04219987812309568</v>
       </c>
       <c r="S17">
-        <v>252.7404971259998</v>
+        <v>135.834609096625</v>
       </c>
       <c r="T17">
-        <v>-33</v>
+        <v>-21</v>
       </c>
       <c r="U17">
-        <v>0.2875756165658446</v>
+        <v>0.2352224253503961</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1568,54 +1568,54 @@
         <v>70</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>-9961</v>
+        <v>-5046</v>
       </c>
       <c r="M18">
-        <v>-8498</v>
+        <v>-4991</v>
       </c>
       <c r="N18">
-        <v>13098</v>
+        <v>100</v>
       </c>
       <c r="O18">
-        <v>-1463</v>
+        <v>-55</v>
       </c>
       <c r="P18">
-        <v>-1133</v>
+        <v>-598</v>
       </c>
       <c r="Q18">
-        <v>1595</v>
+        <v>4925</v>
       </c>
       <c r="R18">
-        <v>-0.1116964422049168</v>
+        <v>-0.55</v>
       </c>
       <c r="S18">
-        <v>105.1263981879759</v>
+        <v>730.2772949366562</v>
       </c>
       <c r="T18">
-        <v>-18</v>
+        <v>-100.5</v>
       </c>
       <c r="U18">
-        <v>0.2947014811421591</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1630,57 +1630,57 @@
         <v>2024</v>
       </c>
       <c r="G19">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>-10081</v>
+        <v>-5293</v>
       </c>
       <c r="M19">
-        <v>-11055</v>
+        <v>-3715</v>
       </c>
       <c r="N19">
-        <v>1853</v>
+        <v>2594</v>
       </c>
       <c r="O19">
-        <v>974</v>
+        <v>-1578</v>
       </c>
       <c r="P19">
-        <v>-1202</v>
+        <v>-1104</v>
       </c>
       <c r="Q19">
-        <v>1963</v>
+        <v>1677</v>
       </c>
       <c r="R19">
-        <v>0.5256341068537507</v>
+        <v>-0.6083269082498073</v>
       </c>
       <c r="S19">
-        <v>267.4160015414173</v>
+        <v>221.8533572611448</v>
       </c>
       <c r="T19">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="U19">
-        <v>0.3712898003237993</v>
+        <v>0.4121048573631457</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1695,57 +1695,57 @@
         <v>2024</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>-12115</v>
+        <v>-7318</v>
       </c>
       <c r="M20">
-        <v>-10198</v>
+        <v>-7410</v>
       </c>
       <c r="N20">
-        <v>1999</v>
+        <v>2934</v>
       </c>
       <c r="O20">
-        <v>-1917</v>
+        <v>92</v>
       </c>
       <c r="P20">
-        <v>-1099</v>
+        <v>-1097</v>
       </c>
       <c r="Q20">
-        <v>1889</v>
+        <v>2022</v>
       </c>
       <c r="R20">
-        <v>-0.9589794897448725</v>
+        <v>0.03135650988411725</v>
       </c>
       <c r="S20">
-        <v>266.9159106719642</v>
+        <v>225.7706314416048</v>
       </c>
       <c r="T20">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="U20">
-        <v>0.3591795897948974</v>
+        <v>0.3677573278800272</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1760,57 +1760,57 @@
         <v>2024</v>
       </c>
       <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I21">
         <v>85</v>
       </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>15</v>
-      </c>
       <c r="J21">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>-12503</v>
+        <v>-7508</v>
       </c>
       <c r="M21">
-        <v>-8382</v>
+        <v>-7817</v>
       </c>
       <c r="N21">
-        <v>1769</v>
+        <v>1192</v>
       </c>
       <c r="O21">
-        <v>-4121</v>
+        <v>309</v>
       </c>
       <c r="P21">
-        <v>-1181</v>
+        <v>-887</v>
       </c>
       <c r="Q21">
-        <v>2117</v>
+        <v>2308</v>
       </c>
       <c r="R21">
-        <v>-2.329564725833805</v>
+        <v>0.2592281879194631</v>
       </c>
       <c r="S21">
-        <v>261.8792791493893</v>
+        <v>321.0616315033071</v>
       </c>
       <c r="T21">
-        <v>-60</v>
+        <v>-47</v>
       </c>
       <c r="U21">
-        <v>0.357263990955342</v>
+        <v>0.3582214765100671</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1825,57 +1825,57 @@
         <v>2024</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>-12728</v>
+        <v>-9566</v>
       </c>
       <c r="M22">
-        <v>-10126</v>
+        <v>-5250</v>
       </c>
       <c r="N22">
-        <v>4114</v>
+        <v>2149</v>
       </c>
       <c r="O22">
-        <v>-2602</v>
+        <v>-4316</v>
       </c>
       <c r="P22">
-        <v>-1146</v>
+        <v>-838</v>
       </c>
       <c r="Q22">
-        <v>1339</v>
+        <v>6266</v>
       </c>
       <c r="R22">
-        <v>-0.6324744773942635</v>
+        <v>-2.008375988832015</v>
       </c>
       <c r="S22">
-        <v>186.0964292182173</v>
+        <v>252.7404971259998</v>
       </c>
       <c r="T22">
-        <v>-34.5</v>
+        <v>-33</v>
       </c>
       <c r="U22">
-        <v>0.3422459893048128</v>
+        <v>0.2875756165658446</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1890,57 +1890,57 @@
         <v>2024</v>
       </c>
       <c r="G23">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>-13313</v>
+        <v>-9961</v>
       </c>
       <c r="M23">
-        <v>-11040</v>
+        <v>-8498</v>
       </c>
       <c r="N23">
-        <v>1050</v>
+        <v>13098</v>
       </c>
       <c r="O23">
-        <v>-2273</v>
+        <v>-1463</v>
       </c>
       <c r="P23">
-        <v>-1166</v>
+        <v>-1133</v>
       </c>
       <c r="Q23">
-        <v>1898</v>
+        <v>1595</v>
       </c>
       <c r="R23">
-        <v>-2.164761904761905</v>
+        <v>-0.1116964422049168</v>
       </c>
       <c r="S23">
-        <v>335.2826675198541</v>
+        <v>105.1263981879759</v>
       </c>
       <c r="T23">
-        <v>-50</v>
+        <v>-18</v>
       </c>
       <c r="U23">
-        <v>0.4057142857142857</v>
+        <v>0.2947014811421591</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1955,57 +1955,57 @@
         <v>2024</v>
       </c>
       <c r="G24">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H24">
-        <v>2.600000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="I24">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>-14534</v>
+        <v>-10081</v>
       </c>
       <c r="M24">
-        <v>-8073</v>
+        <v>-11055</v>
       </c>
       <c r="N24">
-        <v>828</v>
+        <v>1853</v>
       </c>
       <c r="O24">
-        <v>-6461</v>
+        <v>974</v>
       </c>
       <c r="P24">
-        <v>-625</v>
+        <v>-1202</v>
       </c>
       <c r="Q24">
-        <v>3951</v>
+        <v>1963</v>
       </c>
       <c r="R24">
-        <v>-7.803140096618358</v>
+        <v>0.5256341068537507</v>
       </c>
       <c r="S24">
-        <v>340.5023940125885</v>
+        <v>267.4160015414173</v>
       </c>
       <c r="T24">
-        <v>-92.5</v>
+        <v>-40</v>
       </c>
       <c r="U24">
-        <v>0.3405797101449275</v>
+        <v>0.3712898003237993</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2020,57 +2020,57 @@
         <v>2024</v>
       </c>
       <c r="G25">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J25">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>-14691</v>
+        <v>-11046</v>
       </c>
       <c r="M25">
-        <v>-7478</v>
+        <v>-10851</v>
       </c>
       <c r="N25">
-        <v>4518</v>
+        <v>987</v>
       </c>
       <c r="O25">
-        <v>-7213</v>
+        <v>-195</v>
       </c>
       <c r="P25">
-        <v>-581</v>
+        <v>-543</v>
       </c>
       <c r="Q25">
-        <v>4212</v>
+        <v>2805</v>
       </c>
       <c r="R25">
-        <v>-1.596502877379371</v>
+        <v>-0.1975683890577508</v>
       </c>
       <c r="S25">
-        <v>163.9151273496356</v>
+        <v>335.5045354192604</v>
       </c>
       <c r="T25">
-        <v>-22</v>
+        <v>-55</v>
       </c>
       <c r="U25">
-        <v>0.2087206728640991</v>
+        <v>0.3961499493414387</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2085,57 +2085,57 @@
         <v>2024</v>
       </c>
       <c r="G26">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H26">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>-14824</v>
+        <v>-12115</v>
       </c>
       <c r="M26">
-        <v>-10909</v>
+        <v>-10198</v>
       </c>
       <c r="N26">
-        <v>2230</v>
+        <v>1999</v>
       </c>
       <c r="O26">
-        <v>-3915</v>
+        <v>-1917</v>
       </c>
       <c r="P26">
-        <v>-691</v>
+        <v>-1099</v>
       </c>
       <c r="Q26">
-        <v>3600</v>
+        <v>1889</v>
       </c>
       <c r="R26">
-        <v>-1.755605381165919</v>
+        <v>-0.9589794897448725</v>
       </c>
       <c r="S26">
-        <v>226.302567220222</v>
+        <v>266.9159106719642</v>
       </c>
       <c r="T26">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="U26">
-        <v>0.2636771300448431</v>
+        <v>0.3591795897948974</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2150,57 +2150,57 @@
         <v>2024</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J27">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
       <c r="L27">
-        <v>-14876</v>
+        <v>-12503</v>
       </c>
       <c r="M27">
-        <v>-10596</v>
+        <v>-8382</v>
       </c>
       <c r="N27">
-        <v>806</v>
+        <v>1769</v>
       </c>
       <c r="O27">
-        <v>-4280</v>
+        <v>-4121</v>
       </c>
       <c r="P27">
-        <v>-1271</v>
+        <v>-1181</v>
       </c>
       <c r="Q27">
-        <v>3767</v>
+        <v>2117</v>
       </c>
       <c r="R27">
-        <v>-5.310173697270471</v>
+        <v>-2.329564725833805</v>
       </c>
       <c r="S27">
-        <v>369.8100385148059</v>
+        <v>261.8792791493893</v>
       </c>
       <c r="T27">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="U27">
-        <v>0.3684863523573201</v>
+        <v>0.357263990955342</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2215,57 +2215,57 @@
         <v>2024</v>
       </c>
       <c r="G28">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H28">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
       <c r="L28">
-        <v>-15040</v>
+        <v>-12728</v>
       </c>
       <c r="M28">
-        <v>-11529</v>
+        <v>-10126</v>
       </c>
       <c r="N28">
-        <v>2116</v>
+        <v>4114</v>
       </c>
       <c r="O28">
-        <v>-3511</v>
+        <v>-2602</v>
       </c>
       <c r="P28">
-        <v>-730</v>
+        <v>-1146</v>
       </c>
       <c r="Q28">
-        <v>2464</v>
+        <v>1339</v>
       </c>
       <c r="R28">
-        <v>-1.659262759924386</v>
+        <v>-0.6324744773942635</v>
       </c>
       <c r="S28">
-        <v>243.4029748981071</v>
+        <v>186.0964292182173</v>
       </c>
       <c r="T28">
-        <v>-45</v>
+        <v>-34.5</v>
       </c>
       <c r="U28">
-        <v>0.2594517958412098</v>
+        <v>0.3422459893048128</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2280,57 +2280,57 @@
         <v>2024</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H29">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J29">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>-15391</v>
+        <v>-13313</v>
       </c>
       <c r="M29">
-        <v>-8250</v>
+        <v>-11040</v>
       </c>
       <c r="N29">
-        <v>740</v>
+        <v>1050</v>
       </c>
       <c r="O29">
-        <v>-7141</v>
+        <v>-2273</v>
       </c>
       <c r="P29">
-        <v>-713</v>
+        <v>-1166</v>
       </c>
       <c r="Q29">
-        <v>3458</v>
+        <v>1898</v>
       </c>
       <c r="R29">
-        <v>-9.65</v>
+        <v>-2.164761904761905</v>
       </c>
       <c r="S29">
-        <v>371.4870234356526</v>
+        <v>335.2826675198541</v>
       </c>
       <c r="T29">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="U29">
-        <v>0.3648648648648649</v>
+        <v>0.4057142857142857</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -2345,57 +2345,57 @@
         <v>2024</v>
       </c>
       <c r="G30">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J30">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K30">
         <v>6</v>
       </c>
       <c r="L30">
-        <v>-16561</v>
+        <v>-14398</v>
       </c>
       <c r="M30">
-        <v>-8737</v>
+        <v>-8732</v>
       </c>
       <c r="N30">
-        <v>1144</v>
+        <v>655</v>
       </c>
       <c r="O30">
-        <v>-7824</v>
+        <v>-5666</v>
       </c>
       <c r="P30">
-        <v>-686</v>
+        <v>-646</v>
       </c>
       <c r="Q30">
-        <v>3966</v>
+        <v>2887</v>
       </c>
       <c r="R30">
-        <v>-6.839160839160839</v>
+        <v>-8.650381679389312</v>
       </c>
       <c r="S30">
-        <v>296.7805315733735</v>
+        <v>306.1997126493947</v>
       </c>
       <c r="T30">
-        <v>-85.5</v>
+        <v>-109</v>
       </c>
       <c r="U30">
-        <v>0.326048951048951</v>
+        <v>0.2366412213740458</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -2410,13 +2410,13 @@
         <v>2024</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H31">
-        <v>3.600000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J31">
         <v>200</v>
@@ -2425,42 +2425,42 @@
         <v>7</v>
       </c>
       <c r="L31">
-        <v>-17297</v>
+        <v>-14534</v>
       </c>
       <c r="M31">
-        <v>-9799</v>
+        <v>-8073</v>
       </c>
       <c r="N31">
-        <v>1291</v>
+        <v>828</v>
       </c>
       <c r="O31">
-        <v>-7498</v>
+        <v>-6461</v>
       </c>
       <c r="P31">
-        <v>-675</v>
+        <v>-625</v>
       </c>
       <c r="Q31">
-        <v>1946</v>
+        <v>3951</v>
       </c>
       <c r="R31">
-        <v>-5.807900852052672</v>
+        <v>-7.803140096618358</v>
       </c>
       <c r="S31">
-        <v>287.6396159962693</v>
+        <v>340.5023940125885</v>
       </c>
       <c r="T31">
-        <v>-57</v>
+        <v>-92.5</v>
       </c>
       <c r="U31">
-        <v>0.3710302091402014</v>
+        <v>0.3405797101449275</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2475,57 +2475,57 @@
         <v>2024</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H32">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>-18716</v>
+        <v>-14691</v>
       </c>
       <c r="M32">
-        <v>-9986</v>
+        <v>-7478</v>
       </c>
       <c r="N32">
-        <v>3299</v>
+        <v>4518</v>
       </c>
       <c r="O32">
-        <v>-8730</v>
+        <v>-7213</v>
       </c>
       <c r="P32">
-        <v>-666</v>
+        <v>-581</v>
       </c>
       <c r="Q32">
-        <v>1904</v>
+        <v>4212</v>
       </c>
       <c r="R32">
-        <v>-2.646256441345862</v>
+        <v>-1.596502877379371</v>
       </c>
       <c r="S32">
-        <v>182.2008543144159</v>
+        <v>163.9151273496356</v>
       </c>
       <c r="T32">
-        <v>-34</v>
+        <v>-22</v>
       </c>
       <c r="U32">
-        <v>0.3094877235525917</v>
+        <v>0.2087206728640991</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -2540,57 +2540,57 @@
         <v>2024</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I33">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J33">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>-18721</v>
+        <v>-14824</v>
       </c>
       <c r="M33">
-        <v>-10404</v>
+        <v>-10909</v>
       </c>
       <c r="N33">
-        <v>1119</v>
+        <v>2230</v>
       </c>
       <c r="O33">
-        <v>-8317</v>
+        <v>-3915</v>
       </c>
       <c r="P33">
-        <v>-1227</v>
+        <v>-691</v>
       </c>
       <c r="Q33">
-        <v>1657</v>
+        <v>3600</v>
       </c>
       <c r="R33">
-        <v>-7.432529043789097</v>
+        <v>-1.755605381165919</v>
       </c>
       <c r="S33">
-        <v>312.0923946279019</v>
+        <v>226.302567220222</v>
       </c>
       <c r="T33">
-        <v>-47</v>
+        <v>-40</v>
       </c>
       <c r="U33">
-        <v>0.3958891867739053</v>
+        <v>0.2636771300448431</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -2605,57 +2605,57 @@
         <v>2024</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H34">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="J34">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>-18933</v>
+        <v>-14876</v>
       </c>
       <c r="M34">
-        <v>-9976</v>
+        <v>-10596</v>
       </c>
       <c r="N34">
-        <v>1583</v>
+        <v>806</v>
       </c>
       <c r="O34">
-        <v>-8957</v>
+        <v>-4280</v>
       </c>
       <c r="P34">
-        <v>-878</v>
+        <v>-1271</v>
       </c>
       <c r="Q34">
-        <v>1896</v>
+        <v>3767</v>
       </c>
       <c r="R34">
-        <v>-5.658243840808591</v>
+        <v>-5.310173697270471</v>
       </c>
       <c r="S34">
-        <v>271.7037191465236</v>
+        <v>369.8100385148059</v>
       </c>
       <c r="T34">
-        <v>-33</v>
+        <v>-65</v>
       </c>
       <c r="U34">
-        <v>0.396083385975995</v>
+        <v>0.3684863523573201</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2670,57 +2670,57 @@
         <v>2024</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H35">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J35">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L35">
-        <v>-20836</v>
+        <v>-15009</v>
       </c>
       <c r="M35">
-        <v>-14734</v>
+        <v>-8746</v>
       </c>
       <c r="N35">
-        <v>3287</v>
+        <v>497</v>
       </c>
       <c r="O35">
-        <v>-6102</v>
+        <v>-6263</v>
       </c>
       <c r="P35">
-        <v>-1097</v>
+        <v>-645</v>
       </c>
       <c r="Q35">
-        <v>1832</v>
+        <v>2838</v>
       </c>
       <c r="R35">
-        <v>-1.856404015819897</v>
+        <v>-12.60160965794769</v>
       </c>
       <c r="S35">
-        <v>209.9902733073415</v>
+        <v>390.7061015445361</v>
       </c>
       <c r="T35">
-        <v>-38</v>
+        <v>-112</v>
       </c>
       <c r="U35">
-        <v>0.337085488287192</v>
+        <v>0.3380281690140845</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -2735,57 +2735,57 @@
         <v>2024</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H36">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J36">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>-21287</v>
+        <v>-15040</v>
       </c>
       <c r="M36">
-        <v>-12560</v>
+        <v>-11529</v>
       </c>
       <c r="N36">
-        <v>913</v>
+        <v>2116</v>
       </c>
       <c r="O36">
-        <v>-8727</v>
+        <v>-3511</v>
       </c>
       <c r="P36">
-        <v>-740</v>
+        <v>-730</v>
       </c>
       <c r="Q36">
-        <v>4531</v>
+        <v>2464</v>
       </c>
       <c r="R36">
-        <v>-9.558598028477547</v>
+        <v>-1.659262759924386</v>
       </c>
       <c r="S36">
-        <v>361.4256987582615</v>
+        <v>243.4029748981071</v>
       </c>
       <c r="T36">
-        <v>-63</v>
+        <v>-45</v>
       </c>
       <c r="U36">
-        <v>0.3493975903614458</v>
+        <v>0.2594517958412098</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -2800,57 +2800,57 @@
         <v>2024</v>
       </c>
       <c r="G37">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="I37">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="J37">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>-21751</v>
+        <v>-15391</v>
       </c>
       <c r="M37">
-        <v>-17306</v>
+        <v>-8250</v>
       </c>
       <c r="N37">
-        <v>1143</v>
+        <v>740</v>
       </c>
       <c r="O37">
-        <v>-4445</v>
+        <v>-7141</v>
       </c>
       <c r="P37">
-        <v>-887</v>
+        <v>-713</v>
       </c>
       <c r="Q37">
-        <v>2382</v>
+        <v>3458</v>
       </c>
       <c r="R37">
-        <v>-3.888888888888889</v>
+        <v>-9.65</v>
       </c>
       <c r="S37">
-        <v>328.3006284108376</v>
+        <v>371.4870234356526</v>
       </c>
       <c r="T37">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="U37">
-        <v>0.3438320209973753</v>
+        <v>0.3648648648648649</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -2868,54 +2868,54 @@
         <v>85</v>
       </c>
       <c r="H38">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K38">
         <v>6</v>
       </c>
       <c r="L38">
-        <v>-22630</v>
+        <v>-15780</v>
       </c>
       <c r="M38">
-        <v>-14113</v>
+        <v>-11380</v>
       </c>
       <c r="N38">
-        <v>945</v>
+        <v>816</v>
       </c>
       <c r="O38">
-        <v>-8517</v>
+        <v>-4400</v>
       </c>
       <c r="P38">
         <v>-628</v>
       </c>
       <c r="Q38">
-        <v>2495</v>
+        <v>2310</v>
       </c>
       <c r="R38">
-        <v>-9.012698412698413</v>
+        <v>-5.392156862745098</v>
       </c>
       <c r="S38">
-        <v>268.9526184104952</v>
+        <v>303.4968595587351</v>
       </c>
       <c r="T38">
-        <v>-109</v>
+        <v>-122.5</v>
       </c>
       <c r="U38">
-        <v>0.2518518518518518</v>
+        <v>0.3223039215686275</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
@@ -2930,57 +2930,57 @@
         <v>2024</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J39">
         <v>150</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>-22809</v>
+        <v>-16561</v>
       </c>
       <c r="M39">
-        <v>-11690</v>
+        <v>-8737</v>
       </c>
       <c r="N39">
-        <v>2438</v>
+        <v>1144</v>
       </c>
       <c r="O39">
-        <v>-11119</v>
+        <v>-7824</v>
       </c>
       <c r="P39">
-        <v>-666</v>
+        <v>-686</v>
       </c>
       <c r="Q39">
-        <v>2226</v>
+        <v>3966</v>
       </c>
       <c r="R39">
-        <v>-4.56070549630845</v>
+        <v>-6.839160839160839</v>
       </c>
       <c r="S39">
-        <v>204.1837292474893</v>
+        <v>296.7805315733735</v>
       </c>
       <c r="T39">
-        <v>-35</v>
+        <v>-85.5</v>
       </c>
       <c r="U39">
-        <v>0.27850697292863</v>
+        <v>0.326048951048951</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
@@ -2995,57 +2995,57 @@
         <v>2024</v>
       </c>
       <c r="G40">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="I40">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J40">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>-22873</v>
+        <v>-17023</v>
       </c>
       <c r="M40">
-        <v>-14070</v>
+        <v>-9247</v>
       </c>
       <c r="N40">
-        <v>976</v>
+        <v>794</v>
       </c>
       <c r="O40">
-        <v>-8803</v>
+        <v>-7776</v>
       </c>
       <c r="P40">
         <v>-812</v>
       </c>
       <c r="Q40">
-        <v>2457</v>
+        <v>2281</v>
       </c>
       <c r="R40">
-        <v>-9.019467213114755</v>
+        <v>-9.79345088161209</v>
       </c>
       <c r="S40">
-        <v>360.650500391311</v>
+        <v>379.647082116573</v>
       </c>
       <c r="T40">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="U40">
-        <v>0.3770491803278688</v>
+        <v>0.3891687657430731</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -3060,57 +3060,57 @@
         <v>2024</v>
       </c>
       <c r="G41">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>3.600000000000001</v>
       </c>
       <c r="I41">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J41">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>-23220</v>
+        <v>-17297</v>
       </c>
       <c r="M41">
-        <v>-13102</v>
+        <v>-9799</v>
       </c>
       <c r="N41">
-        <v>1746</v>
+        <v>1291</v>
       </c>
       <c r="O41">
-        <v>-10118</v>
+        <v>-7498</v>
       </c>
       <c r="P41">
-        <v>-1196</v>
+        <v>-675</v>
       </c>
       <c r="Q41">
-        <v>1889</v>
+        <v>1946</v>
       </c>
       <c r="R41">
-        <v>-5.79495990836197</v>
+        <v>-5.807900852052672</v>
       </c>
       <c r="S41">
-        <v>273.2229982190586</v>
+        <v>287.6396159962693</v>
       </c>
       <c r="T41">
-        <v>-47</v>
+        <v>-57</v>
       </c>
       <c r="U41">
-        <v>0.3287514318442153</v>
+        <v>0.3710302091402014</v>
       </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B42">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
@@ -3125,57 +3125,57 @@
         <v>2024</v>
       </c>
       <c r="G42">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H42">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="I42">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J42">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>-25826</v>
+        <v>-17744</v>
       </c>
       <c r="M42">
-        <v>-13383</v>
+        <v>-11658</v>
       </c>
       <c r="N42">
-        <v>1263</v>
+        <v>1983</v>
       </c>
       <c r="O42">
-        <v>-12443</v>
+        <v>-6086</v>
       </c>
       <c r="P42">
-        <v>-1192</v>
+        <v>-1202</v>
       </c>
       <c r="Q42">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="R42">
-        <v>-9.851939825811559</v>
+        <v>-3.069087241553202</v>
       </c>
       <c r="S42">
-        <v>295.1843276033912</v>
+        <v>260.7015782986496</v>
       </c>
       <c r="T42">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="U42">
-        <v>0.3832145684877276</v>
+        <v>0.3817448310640444</v>
       </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
@@ -3190,57 +3190,57 @@
         <v>2024</v>
       </c>
       <c r="G43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I43">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>-25979</v>
+        <v>-17792</v>
       </c>
       <c r="M43">
-        <v>-18386</v>
+        <v>-15101</v>
       </c>
       <c r="N43">
-        <v>4088</v>
+        <v>3120</v>
       </c>
       <c r="O43">
-        <v>-7593</v>
+        <v>-2691</v>
       </c>
       <c r="P43">
-        <v>-705</v>
+        <v>-1185</v>
       </c>
       <c r="Q43">
-        <v>2240</v>
+        <v>1721</v>
       </c>
       <c r="R43">
-        <v>-1.857387475538161</v>
+        <v>-0.8625</v>
       </c>
       <c r="S43">
-        <v>178.5891845378079</v>
+        <v>211.4292389451598</v>
       </c>
       <c r="T43">
-        <v>-29</v>
+        <v>-24</v>
       </c>
       <c r="U43">
-        <v>0.1717221135029354</v>
+        <v>0.4096153846153846</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B44">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -3255,57 +3255,57 @@
         <v>2024</v>
       </c>
       <c r="G44">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H44">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="I44">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="J44">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>-26271</v>
+        <v>-18634</v>
       </c>
       <c r="M44">
-        <v>-14020</v>
+        <v>-12236</v>
       </c>
       <c r="N44">
-        <v>1120</v>
+        <v>2175</v>
       </c>
       <c r="O44">
-        <v>-12251</v>
+        <v>-6398</v>
       </c>
       <c r="P44">
-        <v>-878</v>
+        <v>-691</v>
       </c>
       <c r="Q44">
-        <v>2301</v>
+        <v>3600</v>
       </c>
       <c r="R44">
-        <v>-10.93839285714286</v>
+        <v>-2.941609195402299</v>
       </c>
       <c r="S44">
-        <v>297.2766039234743</v>
+        <v>229.3789933004446</v>
       </c>
       <c r="T44">
-        <v>-51.5</v>
+        <v>-41</v>
       </c>
       <c r="U44">
-        <v>0.3589285714285714</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -3320,57 +3320,57 @@
         <v>2024</v>
       </c>
       <c r="G45">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H45">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="I45">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="J45">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>-26436</v>
+        <v>-18716</v>
       </c>
       <c r="M45">
-        <v>-15311</v>
+        <v>-9986</v>
       </c>
       <c r="N45">
-        <v>951</v>
+        <v>3299</v>
       </c>
       <c r="O45">
-        <v>-11125</v>
+        <v>-8730</v>
       </c>
       <c r="P45">
-        <v>-732</v>
+        <v>-666</v>
       </c>
       <c r="Q45">
-        <v>2078</v>
+        <v>1904</v>
       </c>
       <c r="R45">
-        <v>-11.69821240799159</v>
+        <v>-2.646256441345862</v>
       </c>
       <c r="S45">
-        <v>337.2568039735559</v>
+        <v>182.2008543144159</v>
       </c>
       <c r="T45">
-        <v>-55</v>
+        <v>-34</v>
       </c>
       <c r="U45">
-        <v>0.3501577287066246</v>
+        <v>0.3094877235525917</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -3385,57 +3385,57 @@
         <v>2024</v>
       </c>
       <c r="G46">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H46">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L46">
-        <v>-26791</v>
+        <v>-18721</v>
       </c>
       <c r="M46">
-        <v>-14406</v>
+        <v>-10404</v>
       </c>
       <c r="N46">
-        <v>1447</v>
+        <v>1119</v>
       </c>
       <c r="O46">
-        <v>-12385</v>
+        <v>-8317</v>
       </c>
       <c r="P46">
-        <v>-441</v>
+        <v>-1227</v>
       </c>
       <c r="Q46">
-        <v>2083</v>
+        <v>1657</v>
       </c>
       <c r="R46">
-        <v>-8.55908776779544</v>
+        <v>-7.432529043789097</v>
       </c>
       <c r="S46">
-        <v>237.3873932995986</v>
+        <v>312.0923946279019</v>
       </c>
       <c r="T46">
-        <v>-90</v>
+        <v>-47</v>
       </c>
       <c r="U46">
-        <v>0.2508638562543193</v>
+        <v>0.3958891867739053</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -3450,57 +3450,57 @@
         <v>2024</v>
       </c>
       <c r="G47">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H47">
         <v>1.2</v>
       </c>
       <c r="I47">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J47">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>-27220</v>
+        <v>-18933</v>
       </c>
       <c r="M47">
-        <v>-13610</v>
+        <v>-9976</v>
       </c>
       <c r="N47">
-        <v>491</v>
+        <v>1583</v>
       </c>
       <c r="O47">
-        <v>-13610</v>
+        <v>-8957</v>
       </c>
       <c r="P47">
-        <v>-242</v>
+        <v>-878</v>
       </c>
       <c r="Q47">
-        <v>1183</v>
+        <v>1896</v>
       </c>
       <c r="R47">
-        <v>-27.71894093686354</v>
+        <v>-5.658243840808591</v>
       </c>
       <c r="S47">
-        <v>159.9167885316471</v>
+        <v>271.7037191465236</v>
       </c>
       <c r="T47">
-        <v>-65</v>
+        <v>-33</v>
       </c>
       <c r="U47">
-        <v>0.1242362525458248</v>
+        <v>0.396083385975995</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B48">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -3515,57 +3515,57 @@
         <v>2024</v>
       </c>
       <c r="G48">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H48">
-        <v>3.600000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I48">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J48">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L48">
-        <v>-27387</v>
+        <v>-20504</v>
       </c>
       <c r="M48">
-        <v>-16939</v>
+        <v>-10252</v>
       </c>
       <c r="N48">
-        <v>4432</v>
+        <v>748</v>
       </c>
       <c r="O48">
-        <v>-10448</v>
+        <v>-10252</v>
       </c>
       <c r="P48">
-        <v>-1196</v>
+        <v>-403</v>
       </c>
       <c r="Q48">
-        <v>2530</v>
+        <v>3002</v>
       </c>
       <c r="R48">
-        <v>-2.357400722021661</v>
+        <v>-13.70588235294118</v>
       </c>
       <c r="S48">
-        <v>174.1065886581619</v>
+        <v>219.3935165384059</v>
       </c>
       <c r="T48">
-        <v>-30</v>
+        <v>-62</v>
       </c>
       <c r="U48">
-        <v>0.1784747292418773</v>
+        <v>0.1644385026737968</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -3580,57 +3580,57 @@
         <v>2024</v>
       </c>
       <c r="G49">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H49">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="I49">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J49">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>-28056</v>
+        <v>-20836</v>
       </c>
       <c r="M49">
-        <v>-14630</v>
+        <v>-14734</v>
       </c>
       <c r="N49">
-        <v>792</v>
+        <v>3287</v>
       </c>
       <c r="O49">
-        <v>-13426</v>
+        <v>-6102</v>
       </c>
       <c r="P49">
-        <v>-772</v>
+        <v>-1097</v>
       </c>
       <c r="Q49">
-        <v>2767</v>
+        <v>1832</v>
       </c>
       <c r="R49">
-        <v>-16.9520202020202</v>
+        <v>-1.856404015819897</v>
       </c>
       <c r="S49">
-        <v>378.5502051233747</v>
+        <v>209.9902733073415</v>
       </c>
       <c r="T49">
-        <v>-56</v>
+        <v>-38</v>
       </c>
       <c r="U49">
-        <v>0.3775252525252525</v>
+        <v>0.337085488287192</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -3645,57 +3645,57 @@
         <v>2024</v>
       </c>
       <c r="G50">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="I50">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="J50">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L50">
-        <v>-28429</v>
+        <v>-21287</v>
       </c>
       <c r="M50">
-        <v>-14992</v>
+        <v>-12560</v>
       </c>
       <c r="N50">
-        <v>491</v>
+        <v>913</v>
       </c>
       <c r="O50">
-        <v>-13437</v>
+        <v>-8727</v>
       </c>
       <c r="P50">
-        <v>-725</v>
+        <v>-740</v>
       </c>
       <c r="Q50">
-        <v>3263</v>
+        <v>4531</v>
       </c>
       <c r="R50">
-        <v>-27.36659877800407</v>
+        <v>-9.558598028477547</v>
       </c>
       <c r="S50">
-        <v>477.5126831303501</v>
+        <v>361.4256987582615</v>
       </c>
       <c r="T50">
-        <v>-79</v>
+        <v>-63</v>
       </c>
       <c r="U50">
-        <v>0.374745417515275</v>
+        <v>0.3493975903614458</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -3710,57 +3710,57 @@
         <v>2024</v>
       </c>
       <c r="G51">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H51">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="I51">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J51">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>-29102</v>
+        <v>-21704</v>
       </c>
       <c r="M51">
-        <v>-16793</v>
+        <v>-12426</v>
       </c>
       <c r="N51">
-        <v>1259</v>
+        <v>1565</v>
       </c>
       <c r="O51">
-        <v>-12309</v>
+        <v>-9278</v>
       </c>
       <c r="P51">
-        <v>-1227</v>
+        <v>-1181</v>
       </c>
       <c r="Q51">
-        <v>1682</v>
+        <v>1754</v>
       </c>
       <c r="R51">
-        <v>-9.776806989674345</v>
+        <v>-5.928434504792333</v>
       </c>
       <c r="S51">
-        <v>307.8269351241025</v>
+        <v>271.6602910405202</v>
       </c>
       <c r="T51">
-        <v>-40</v>
+        <v>-46</v>
       </c>
       <c r="U51">
-        <v>0.403494837172359</v>
+        <v>0.3648562300319489</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -3775,57 +3775,57 @@
         <v>2024</v>
       </c>
       <c r="G52">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H52">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I52">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L52">
-        <v>-29104</v>
+        <v>-21751</v>
       </c>
       <c r="M52">
-        <v>-15081</v>
+        <v>-17306</v>
       </c>
       <c r="N52">
-        <v>925</v>
+        <v>1143</v>
       </c>
       <c r="O52">
-        <v>-14023</v>
+        <v>-4445</v>
       </c>
       <c r="P52">
-        <v>-645</v>
+        <v>-887</v>
       </c>
       <c r="Q52">
-        <v>2310</v>
+        <v>2382</v>
       </c>
       <c r="R52">
-        <v>-15.16</v>
+        <v>-3.888888888888889</v>
       </c>
       <c r="S52">
-        <v>274.490266297171</v>
+        <v>328.3006284108376</v>
       </c>
       <c r="T52">
-        <v>-110</v>
+        <v>-55</v>
       </c>
       <c r="U52">
-        <v>0.2378378378378379</v>
+        <v>0.3438320209973753</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -3843,54 +3843,54 @@
         <v>15</v>
       </c>
       <c r="H53">
-        <v>2.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I53">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J53">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L53">
-        <v>-29699</v>
+        <v>-22421</v>
       </c>
       <c r="M53">
-        <v>-15122</v>
+        <v>-11382</v>
       </c>
       <c r="N53">
-        <v>1441</v>
+        <v>911</v>
       </c>
       <c r="O53">
-        <v>-14577</v>
+        <v>-11039</v>
       </c>
       <c r="P53">
-        <v>-1222</v>
+        <v>-647</v>
       </c>
       <c r="Q53">
-        <v>1819</v>
+        <v>2072</v>
       </c>
       <c r="R53">
-        <v>-10.11589174184594</v>
+        <v>-12.11745334796927</v>
       </c>
       <c r="S53">
-        <v>291.8916286284077</v>
+        <v>327.6217472273516</v>
       </c>
       <c r="T53">
-        <v>-44</v>
+        <v>-62</v>
       </c>
       <c r="U53">
-        <v>0.392088827203331</v>
+        <v>0.3754116355653128</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -3905,57 +3905,57 @@
         <v>2024</v>
       </c>
       <c r="G54">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="I54">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>-31407</v>
+        <v>-22630</v>
       </c>
       <c r="M54">
-        <v>-15916</v>
+        <v>-14113</v>
       </c>
       <c r="N54">
-        <v>1122</v>
+        <v>945</v>
       </c>
       <c r="O54">
-        <v>-15491</v>
+        <v>-8517</v>
       </c>
       <c r="P54">
-        <v>-651</v>
+        <v>-628</v>
       </c>
       <c r="Q54">
-        <v>1769</v>
+        <v>2495</v>
       </c>
       <c r="R54">
-        <v>-13.80659536541889</v>
+        <v>-9.012698412698413</v>
       </c>
       <c r="S54">
-        <v>236.7875636412987</v>
+        <v>268.9526184104952</v>
       </c>
       <c r="T54">
-        <v>-104</v>
+        <v>-109</v>
       </c>
       <c r="U54">
-        <v>0.2700534759358289</v>
+        <v>0.2518518518518518</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -3973,54 +3973,54 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="I55">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>-32406</v>
+        <v>-22809</v>
       </c>
       <c r="M55">
-        <v>-16593</v>
+        <v>-11690</v>
       </c>
       <c r="N55">
-        <v>1369</v>
+        <v>2438</v>
       </c>
       <c r="O55">
-        <v>-15813</v>
+        <v>-11119</v>
       </c>
       <c r="P55">
-        <v>-691</v>
+        <v>-666</v>
       </c>
       <c r="Q55">
-        <v>2150</v>
+        <v>2226</v>
       </c>
       <c r="R55">
-        <v>-11.55076698319942</v>
+        <v>-4.56070549630845</v>
       </c>
       <c r="S55">
-        <v>232.7792364361006</v>
+        <v>204.1837292474893</v>
       </c>
       <c r="T55">
-        <v>-65</v>
+        <v>-35</v>
       </c>
       <c r="U55">
-        <v>0.2695398100803506</v>
+        <v>0.27850697292863</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="1">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -4035,57 +4035,57 @@
         <v>2024</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>3.8</v>
       </c>
       <c r="I56">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L56">
-        <v>-32959</v>
+        <v>-22873</v>
       </c>
       <c r="M56">
-        <v>-17042</v>
+        <v>-14070</v>
       </c>
       <c r="N56">
-        <v>1482</v>
+        <v>976</v>
       </c>
       <c r="O56">
-        <v>-15917</v>
+        <v>-8803</v>
       </c>
       <c r="P56">
-        <v>-729</v>
+        <v>-812</v>
       </c>
       <c r="Q56">
-        <v>2232</v>
+        <v>2457</v>
       </c>
       <c r="R56">
-        <v>-10.74021592442645</v>
+        <v>-9.019467213114755</v>
       </c>
       <c r="S56">
-        <v>255.2636421019857</v>
+        <v>360.650500391311</v>
       </c>
       <c r="T56">
-        <v>-68.5</v>
+        <v>-58</v>
       </c>
       <c r="U56">
-        <v>0.3184885290148448</v>
+        <v>0.3770491803278688</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -4100,57 +4100,57 @@
         <v>2024</v>
       </c>
       <c r="G57">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I57">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J57">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57">
-        <v>-35527</v>
+        <v>-23220</v>
       </c>
       <c r="M57">
-        <v>-20057</v>
+        <v>-13102</v>
       </c>
       <c r="N57">
-        <v>2703</v>
+        <v>1746</v>
       </c>
       <c r="O57">
-        <v>-15470</v>
+        <v>-10118</v>
       </c>
       <c r="P57">
         <v>-1196</v>
       </c>
       <c r="Q57">
-        <v>1931</v>
+        <v>1889</v>
       </c>
       <c r="R57">
-        <v>-5.723270440251572</v>
+        <v>-5.79495990836197</v>
       </c>
       <c r="S57">
-        <v>225.3224704475816</v>
+        <v>273.2229982190586</v>
       </c>
       <c r="T57">
-        <v>-40</v>
+        <v>-47</v>
       </c>
       <c r="U57">
-        <v>0.365149833518313</v>
+        <v>0.3287514318442153</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="1">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B58">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -4165,57 +4165,57 @@
         <v>2024</v>
       </c>
       <c r="G58">
+        <v>85</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>75</v>
       </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58">
-        <v>20</v>
-      </c>
       <c r="J58">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K58">
         <v>7</v>
       </c>
       <c r="L58">
-        <v>-35934</v>
+        <v>-23295</v>
       </c>
       <c r="M58">
-        <v>-18138</v>
+        <v>-17228</v>
       </c>
       <c r="N58">
-        <v>1433</v>
+        <v>773</v>
       </c>
       <c r="O58">
-        <v>-17796</v>
+        <v>-6067</v>
       </c>
       <c r="P58">
-        <v>-1166</v>
+        <v>-500</v>
       </c>
       <c r="Q58">
-        <v>1932</v>
+        <v>2331</v>
       </c>
       <c r="R58">
-        <v>-12.41870202372645</v>
+        <v>-7.848641655886158</v>
       </c>
       <c r="S58">
-        <v>309.6868764810833</v>
+        <v>350.2111639675342</v>
       </c>
       <c r="T58">
-        <v>-40</v>
+        <v>-63</v>
       </c>
       <c r="U58">
-        <v>0.3991625959525471</v>
+        <v>0.3803363518758086</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B59">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -4230,57 +4230,57 @@
         <v>2024</v>
       </c>
       <c r="G59">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>3.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>-36758</v>
+        <v>-25147</v>
       </c>
       <c r="M59">
-        <v>-21256</v>
+        <v>-12605</v>
       </c>
       <c r="N59">
-        <v>4001</v>
+        <v>4563</v>
       </c>
       <c r="O59">
-        <v>-15502</v>
+        <v>-12542</v>
       </c>
       <c r="P59">
-        <v>-705</v>
+        <v>-581</v>
       </c>
       <c r="Q59">
-        <v>2275</v>
+        <v>4212</v>
       </c>
       <c r="R59">
-        <v>-3.87453136715821</v>
+        <v>-2.748630287091826</v>
       </c>
       <c r="S59">
-        <v>175.0319505340657</v>
+        <v>159.2540637535934</v>
       </c>
       <c r="T59">
-        <v>-28</v>
+        <v>-22</v>
       </c>
       <c r="U59">
-        <v>0.1567108222944264</v>
+        <v>0.2119219811527504</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -4295,57 +4295,57 @@
         <v>2024</v>
       </c>
       <c r="G60">
+        <v>80</v>
+      </c>
+      <c r="H60">
+        <v>2.4</v>
+      </c>
+      <c r="I60">
         <v>50</v>
       </c>
-      <c r="H60">
-        <v>1.8</v>
-      </c>
-      <c r="I60">
-        <v>20</v>
-      </c>
       <c r="J60">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>-37024</v>
+        <v>-25560</v>
       </c>
       <c r="M60">
-        <v>-19549</v>
+        <v>-15626</v>
       </c>
       <c r="N60">
-        <v>4845</v>
+        <v>2864</v>
       </c>
       <c r="O60">
-        <v>-17475</v>
+        <v>-9934</v>
       </c>
       <c r="P60">
-        <v>-1185</v>
+        <v>-1196</v>
       </c>
       <c r="Q60">
-        <v>1882</v>
+        <v>1811</v>
       </c>
       <c r="R60">
-        <v>-3.606811145510836</v>
+        <v>-3.468575418994413</v>
       </c>
       <c r="S60">
-        <v>166.6618620413136</v>
+        <v>200.7699557449126</v>
       </c>
       <c r="T60">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="U60">
-        <v>0.3325077399380805</v>
+        <v>0.2908519553072625</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -4360,57 +4360,57 @@
         <v>2024</v>
       </c>
       <c r="G61">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H61">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J61">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K61">
         <v>5</v>
       </c>
       <c r="L61">
-        <v>-38350</v>
+        <v>-25826</v>
       </c>
       <c r="M61">
-        <v>-20367</v>
+        <v>-13383</v>
       </c>
       <c r="N61">
-        <v>598</v>
+        <v>1263</v>
       </c>
       <c r="O61">
-        <v>-17983</v>
+        <v>-12443</v>
       </c>
       <c r="P61">
-        <v>-713</v>
+        <v>-1192</v>
       </c>
       <c r="Q61">
-        <v>2987</v>
+        <v>1896</v>
       </c>
       <c r="R61">
-        <v>-30.07190635451505</v>
+        <v>-9.851939825811559</v>
       </c>
       <c r="S61">
-        <v>382.2214024817225</v>
+        <v>295.1843276033912</v>
       </c>
       <c r="T61">
-        <v>-85</v>
+        <v>-49</v>
       </c>
       <c r="U61">
-        <v>0.342809364548495</v>
+        <v>0.3832145684877276</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -4428,54 +4428,54 @@
         <v>40</v>
       </c>
       <c r="H62">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="I62">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="J62">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>-39453</v>
+        <v>-25979</v>
       </c>
       <c r="M62">
-        <v>-19912</v>
+        <v>-18386</v>
       </c>
       <c r="N62">
-        <v>1061</v>
+        <v>4088</v>
       </c>
       <c r="O62">
-        <v>-19541</v>
+        <v>-7593</v>
       </c>
       <c r="P62">
-        <v>-625</v>
+        <v>-705</v>
       </c>
       <c r="Q62">
-        <v>1876</v>
+        <v>2240</v>
       </c>
       <c r="R62">
-        <v>-18.41753063147974</v>
+        <v>-1.857387475538161</v>
       </c>
       <c r="S62">
-        <v>198.7282232693175</v>
+        <v>178.5891845378079</v>
       </c>
       <c r="T62">
-        <v>-64</v>
+        <v>-29</v>
       </c>
       <c r="U62">
-        <v>0.1621112158341187</v>
+        <v>0.1717221135029354</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -4490,57 +4490,57 @@
         <v>2024</v>
       </c>
       <c r="G63">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H63">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="I63">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J63">
         <v>350</v>
       </c>
       <c r="K63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>-44177</v>
+        <v>-26174</v>
       </c>
       <c r="M63">
-        <v>-22519</v>
+        <v>-16395</v>
       </c>
       <c r="N63">
-        <v>956</v>
+        <v>4358</v>
       </c>
       <c r="O63">
-        <v>-21658</v>
+        <v>-9779</v>
       </c>
       <c r="P63">
-        <v>-750</v>
+        <v>-1196</v>
       </c>
       <c r="Q63">
-        <v>1895</v>
+        <v>1776</v>
       </c>
       <c r="R63">
-        <v>-22.65481171548117</v>
+        <v>-2.24391922900413</v>
       </c>
       <c r="S63">
-        <v>326.6490895547896</v>
+        <v>180.3090252534579</v>
       </c>
       <c r="T63">
-        <v>-60</v>
+        <v>-23</v>
       </c>
       <c r="U63">
-        <v>0.3797071129707113</v>
+        <v>0.3932996787517209</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="1">
+        <v>57</v>
+      </c>
+      <c r="B64">
         <v>68</v>
-      </c>
-      <c r="B64">
-        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -4558,54 +4558,54 @@
         <v>70</v>
       </c>
       <c r="H64">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="I64">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J64">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>-44426</v>
+        <v>-26271</v>
       </c>
       <c r="M64">
-        <v>-24616</v>
+        <v>-14020</v>
       </c>
       <c r="N64">
-        <v>1595</v>
+        <v>1120</v>
       </c>
       <c r="O64">
-        <v>-19810</v>
+        <v>-12251</v>
       </c>
       <c r="P64">
-        <v>-701</v>
+        <v>-878</v>
       </c>
       <c r="Q64">
-        <v>2527</v>
+        <v>2301</v>
       </c>
       <c r="R64">
-        <v>-12.42006269592476</v>
+        <v>-10.93839285714286</v>
       </c>
       <c r="S64">
-        <v>227.8886112964331</v>
+        <v>297.2766039234743</v>
       </c>
       <c r="T64">
-        <v>-106</v>
+        <v>-51.5</v>
       </c>
       <c r="U64">
-        <v>0.2990595611285267</v>
+        <v>0.3589285714285714</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B65">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>20</v>
@@ -4620,57 +4620,57 @@
         <v>2024</v>
       </c>
       <c r="G65">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>3.600000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="I65">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="J65">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K65">
         <v>5</v>
       </c>
       <c r="L65">
-        <v>-49927</v>
+        <v>-26436</v>
       </c>
       <c r="M65">
-        <v>-25458</v>
+        <v>-15311</v>
       </c>
       <c r="N65">
-        <v>1233</v>
+        <v>951</v>
       </c>
       <c r="O65">
-        <v>-24469</v>
+        <v>-11125</v>
       </c>
       <c r="P65">
-        <v>-1207</v>
+        <v>-732</v>
       </c>
       <c r="Q65">
-        <v>1896</v>
+        <v>2078</v>
       </c>
       <c r="R65">
-        <v>-19.84509326845093</v>
+        <v>-11.69821240799159</v>
       </c>
       <c r="S65">
-        <v>303.4720457855181</v>
+        <v>337.2568039735559</v>
       </c>
       <c r="T65">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="U65">
-        <v>0.3706407137064071</v>
+        <v>0.3501577287066246</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
         <v>20</v>
@@ -4685,57 +4685,57 @@
         <v>2024</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>2.600000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="I66">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>-52243</v>
+        <v>-26791</v>
       </c>
       <c r="M66">
-        <v>-26392</v>
+        <v>-14406</v>
       </c>
       <c r="N66">
-        <v>1483</v>
+        <v>1447</v>
       </c>
       <c r="O66">
-        <v>-25851</v>
+        <v>-12385</v>
       </c>
       <c r="P66">
-        <v>-1166</v>
+        <v>-441</v>
       </c>
       <c r="Q66">
-        <v>1839</v>
+        <v>2083</v>
       </c>
       <c r="R66">
-        <v>-17.43155765340526</v>
+        <v>-8.55908776779544</v>
       </c>
       <c r="S66">
-        <v>265.5178908717103</v>
+        <v>237.3873932995986</v>
       </c>
       <c r="T66">
-        <v>-66</v>
+        <v>-90</v>
       </c>
       <c r="U66">
-        <v>0.3594066082265678</v>
+        <v>0.2508638562543193</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="1">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B67">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
@@ -4750,122 +4750,122 @@
         <v>2024</v>
       </c>
       <c r="G67">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H67">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="I67">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J67">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L67">
-        <v>-53157</v>
+        <v>-27220</v>
       </c>
       <c r="M67">
-        <v>-28356</v>
+        <v>-13610</v>
       </c>
       <c r="N67">
-        <v>2903</v>
+        <v>491</v>
       </c>
       <c r="O67">
-        <v>-24801</v>
+        <v>-13610</v>
       </c>
       <c r="P67">
-        <v>-1196</v>
+        <v>-242</v>
       </c>
       <c r="Q67">
-        <v>1931</v>
+        <v>1183</v>
       </c>
       <c r="R67">
-        <v>-8.543231140199794</v>
+        <v>-27.71894093686354</v>
       </c>
       <c r="S67">
-        <v>211.4341872642396</v>
+        <v>159.9167885316471</v>
       </c>
       <c r="T67">
-        <v>-39</v>
+        <v>-65</v>
       </c>
       <c r="U67">
-        <v>0.3510161901481226</v>
+        <v>0.1242362525458248</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="1">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <v>2017</v>
+      </c>
+      <c r="F68">
+        <v>2024</v>
+      </c>
+      <c r="G68">
         <v>40</v>
       </c>
-      <c r="B68">
-        <v>48</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68">
-        <v>2017</v>
-      </c>
-      <c r="F68">
-        <v>2024</v>
-      </c>
-      <c r="G68">
-        <v>85</v>
-      </c>
       <c r="H68">
-        <v>3</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I68">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J68">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>-53832</v>
+        <v>-27387</v>
       </c>
       <c r="M68">
-        <v>-27250</v>
+        <v>-16939</v>
       </c>
       <c r="N68">
-        <v>1094</v>
+        <v>4432</v>
       </c>
       <c r="O68">
-        <v>-26582</v>
+        <v>-10448</v>
       </c>
       <c r="P68">
-        <v>-1166</v>
+        <v>-1196</v>
       </c>
       <c r="Q68">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="R68">
-        <v>-24.29798903107861</v>
+        <v>-2.357400722021661</v>
       </c>
       <c r="S68">
-        <v>197.0742926747432</v>
+        <v>174.1065886581619</v>
       </c>
       <c r="T68">
-        <v>-63</v>
+        <v>-30</v>
       </c>
       <c r="U68">
-        <v>0.1453382084095064</v>
+        <v>0.1784747292418773</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="1">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -4880,13 +4880,13 @@
         <v>2024</v>
       </c>
       <c r="G69">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H69">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="I69">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>500</v>
@@ -4895,42 +4895,42 @@
         <v>6</v>
       </c>
       <c r="L69">
-        <v>-54417</v>
+        <v>-28056</v>
       </c>
       <c r="M69">
-        <v>-29399</v>
+        <v>-14630</v>
       </c>
       <c r="N69">
-        <v>1166</v>
+        <v>792</v>
       </c>
       <c r="O69">
-        <v>-25018</v>
+        <v>-13426</v>
       </c>
       <c r="P69">
-        <v>-1222</v>
+        <v>-772</v>
       </c>
       <c r="Q69">
-        <v>1690</v>
+        <v>2767</v>
       </c>
       <c r="R69">
-        <v>-21.45626072041166</v>
+        <v>-16.9520202020202</v>
       </c>
       <c r="S69">
-        <v>319.651481615877</v>
+        <v>378.5502051233747</v>
       </c>
       <c r="T69">
-        <v>-51</v>
+        <v>-56</v>
       </c>
       <c r="U69">
-        <v>0.3825042881646655</v>
+        <v>0.3775252525252525</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -4945,57 +4945,57 @@
         <v>2024</v>
       </c>
       <c r="G70">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H70">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J70">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K70">
         <v>7</v>
       </c>
       <c r="L70">
-        <v>-54501</v>
+        <v>-28429</v>
       </c>
       <c r="M70">
-        <v>-27887</v>
+        <v>-14992</v>
       </c>
       <c r="N70">
-        <v>973</v>
+        <v>491</v>
       </c>
       <c r="O70">
-        <v>-26614</v>
+        <v>-13437</v>
       </c>
       <c r="P70">
-        <v>-1177</v>
+        <v>-725</v>
       </c>
       <c r="Q70">
-        <v>2328</v>
+        <v>3263</v>
       </c>
       <c r="R70">
-        <v>-27.35251798561151</v>
+        <v>-27.36659877800407</v>
       </c>
       <c r="S70">
-        <v>341.1998508473047</v>
+        <v>477.5126831303501</v>
       </c>
       <c r="T70">
-        <v>-59</v>
+        <v>-79</v>
       </c>
       <c r="U70">
-        <v>0.3895169578622816</v>
+        <v>0.374745417515275</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
@@ -5010,57 +5010,57 @@
         <v>2024</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H71">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="I71">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J71">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L71">
-        <v>-69733</v>
+        <v>-29102</v>
       </c>
       <c r="M71">
-        <v>-34937</v>
+        <v>-16793</v>
       </c>
       <c r="N71">
-        <v>1621</v>
+        <v>1259</v>
       </c>
       <c r="O71">
-        <v>-34796</v>
+        <v>-12309</v>
       </c>
       <c r="P71">
-        <v>-454</v>
+        <v>-1227</v>
       </c>
       <c r="Q71">
-        <v>1484</v>
+        <v>1682</v>
       </c>
       <c r="R71">
-        <v>-21.46576187538556</v>
+        <v>-9.776806989674345</v>
       </c>
       <c r="S71">
-        <v>155.3530999268075</v>
+        <v>307.8269351241025</v>
       </c>
       <c r="T71">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="U71">
-        <v>0.1745835903763109</v>
+        <v>0.403494837172359</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
@@ -5075,57 +5075,57 @@
         <v>2024</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I72">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J72">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K72">
         <v>6</v>
       </c>
       <c r="L72">
-        <v>-70830</v>
+        <v>-29104</v>
       </c>
       <c r="M72">
-        <v>-35415</v>
+        <v>-15081</v>
       </c>
       <c r="N72">
-        <v>1430</v>
+        <v>925</v>
       </c>
       <c r="O72">
-        <v>-35415</v>
+        <v>-14023</v>
       </c>
       <c r="P72">
-        <v>-628</v>
+        <v>-645</v>
       </c>
       <c r="Q72">
-        <v>1920</v>
+        <v>2310</v>
       </c>
       <c r="R72">
-        <v>-24.76573426573427</v>
+        <v>-15.16</v>
       </c>
       <c r="S72">
-        <v>173.7017307726434</v>
+        <v>274.490266297171</v>
       </c>
       <c r="T72">
-        <v>-63</v>
+        <v>-110</v>
       </c>
       <c r="U72">
-        <v>0.1706293706293706</v>
+        <v>0.2378378378378379</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -5140,57 +5140,57 @@
         <v>2024</v>
       </c>
       <c r="G73">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H73">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>-118272</v>
+        <v>-29699</v>
       </c>
       <c r="M73">
-        <v>-59136</v>
+        <v>-15122</v>
       </c>
       <c r="N73">
-        <v>2720</v>
+        <v>1441</v>
       </c>
       <c r="O73">
-        <v>-59136</v>
+        <v>-14577</v>
       </c>
       <c r="P73">
-        <v>-1066</v>
+        <v>-1222</v>
       </c>
       <c r="Q73">
-        <v>2574</v>
+        <v>1819</v>
       </c>
       <c r="R73">
-        <v>-21.74117647058824</v>
+        <v>-10.11589174184594</v>
       </c>
       <c r="S73">
-        <v>154.5695966749703</v>
+        <v>291.8916286284077</v>
       </c>
       <c r="T73">
-        <v>-60</v>
+        <v>-44</v>
       </c>
       <c r="U73">
-        <v>0.2165441176470588</v>
+        <v>0.392088827203331</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="1">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -5205,57 +5205,57 @@
         <v>2024</v>
       </c>
       <c r="G74">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I74">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J74">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L74">
-        <v>-143033</v>
+        <v>-31259</v>
       </c>
       <c r="M74">
-        <v>-71884</v>
+        <v>-16125</v>
       </c>
       <c r="N74">
-        <v>6774</v>
+        <v>1340</v>
       </c>
       <c r="O74">
-        <v>-71149</v>
+        <v>-15134</v>
       </c>
       <c r="P74">
-        <v>-1146</v>
+        <v>-681</v>
       </c>
       <c r="Q74">
-        <v>1916</v>
+        <v>1782</v>
       </c>
       <c r="R74">
-        <v>-10.50324771183939</v>
+        <v>-11.29402985074627</v>
       </c>
       <c r="S74">
-        <v>136.1117339105688</v>
+        <v>258.1106325223232</v>
       </c>
       <c r="T74">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="U74">
-        <v>0.2004723944493652</v>
+        <v>0.3455223880597015</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="1">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B75">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
@@ -5270,48 +5270,1738 @@
         <v>2024</v>
       </c>
       <c r="G75">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H75">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I75">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J75">
         <v>50</v>
       </c>
       <c r="K75">
+        <v>6</v>
+      </c>
+      <c r="L75">
+        <v>-31270</v>
+      </c>
+      <c r="M75">
+        <v>-16133</v>
+      </c>
+      <c r="N75">
+        <v>807</v>
+      </c>
+      <c r="O75">
+        <v>-15137</v>
+      </c>
+      <c r="P75">
+        <v>-628</v>
+      </c>
+      <c r="Q75">
+        <v>3952</v>
+      </c>
+      <c r="R75">
+        <v>-18.75712515489467</v>
+      </c>
+      <c r="S75">
+        <v>238.4824294170998</v>
+      </c>
+      <c r="T75">
+        <v>-63</v>
+      </c>
+      <c r="U75">
+        <v>0.1363073110285006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="1">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <v>2017</v>
+      </c>
+      <c r="F76">
+        <v>2024</v>
+      </c>
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76">
         <v>1</v>
       </c>
-      <c r="L75">
+      <c r="I76">
+        <v>70</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>-31407</v>
+      </c>
+      <c r="M76">
+        <v>-15916</v>
+      </c>
+      <c r="N76">
+        <v>1122</v>
+      </c>
+      <c r="O76">
+        <v>-15491</v>
+      </c>
+      <c r="P76">
+        <v>-651</v>
+      </c>
+      <c r="Q76">
+        <v>1769</v>
+      </c>
+      <c r="R76">
+        <v>-13.80659536541889</v>
+      </c>
+      <c r="S76">
+        <v>236.7875636412987</v>
+      </c>
+      <c r="T76">
+        <v>-104</v>
+      </c>
+      <c r="U76">
+        <v>0.2700534759358289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="1">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>2017</v>
+      </c>
+      <c r="F77">
+        <v>2024</v>
+      </c>
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77">
+        <v>1.4</v>
+      </c>
+      <c r="I77">
+        <v>95</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>-32406</v>
+      </c>
+      <c r="M77">
+        <v>-16593</v>
+      </c>
+      <c r="N77">
+        <v>1369</v>
+      </c>
+      <c r="O77">
+        <v>-15813</v>
+      </c>
+      <c r="P77">
+        <v>-691</v>
+      </c>
+      <c r="Q77">
+        <v>2150</v>
+      </c>
+      <c r="R77">
+        <v>-11.55076698319942</v>
+      </c>
+      <c r="S77">
+        <v>232.7792364361006</v>
+      </c>
+      <c r="T77">
+        <v>-65</v>
+      </c>
+      <c r="U77">
+        <v>0.2695398100803506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="1">
+        <v>46</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <v>2017</v>
+      </c>
+      <c r="F78">
+        <v>2024</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>3.8</v>
+      </c>
+      <c r="I78">
+        <v>45</v>
+      </c>
+      <c r="J78">
+        <v>150</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>-32959</v>
+      </c>
+      <c r="M78">
+        <v>-17042</v>
+      </c>
+      <c r="N78">
+        <v>1482</v>
+      </c>
+      <c r="O78">
+        <v>-15917</v>
+      </c>
+      <c r="P78">
+        <v>-729</v>
+      </c>
+      <c r="Q78">
+        <v>2232</v>
+      </c>
+      <c r="R78">
+        <v>-10.74021592442645</v>
+      </c>
+      <c r="S78">
+        <v>255.2636421019857</v>
+      </c>
+      <c r="T78">
+        <v>-68.5</v>
+      </c>
+      <c r="U78">
+        <v>0.3184885290148448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="1">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>105</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>2017</v>
+      </c>
+      <c r="F79">
+        <v>2024</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <v>2.4</v>
+      </c>
+      <c r="I79">
+        <v>70</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+      <c r="L79">
+        <v>-33357</v>
+      </c>
+      <c r="M79">
+        <v>-17612</v>
+      </c>
+      <c r="N79">
+        <v>933</v>
+      </c>
+      <c r="O79">
+        <v>-15745</v>
+      </c>
+      <c r="P79">
+        <v>-737</v>
+      </c>
+      <c r="Q79">
+        <v>1759</v>
+      </c>
+      <c r="R79">
+        <v>-16.87566988210075</v>
+      </c>
+      <c r="S79">
+        <v>248.7115944439102</v>
+      </c>
+      <c r="T79">
+        <v>-108</v>
+      </c>
+      <c r="U79">
+        <v>0.2615219721329046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1">
+        <v>51</v>
+      </c>
+      <c r="B80">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80">
+        <v>2017</v>
+      </c>
+      <c r="F80">
+        <v>2024</v>
+      </c>
+      <c r="G80">
+        <v>80</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>25</v>
+      </c>
+      <c r="J80">
+        <v>350</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>-35527</v>
+      </c>
+      <c r="M80">
+        <v>-20057</v>
+      </c>
+      <c r="N80">
+        <v>2703</v>
+      </c>
+      <c r="O80">
+        <v>-15470</v>
+      </c>
+      <c r="P80">
+        <v>-1196</v>
+      </c>
+      <c r="Q80">
+        <v>1931</v>
+      </c>
+      <c r="R80">
+        <v>-5.723270440251572</v>
+      </c>
+      <c r="S80">
+        <v>225.3224704475816</v>
+      </c>
+      <c r="T80">
+        <v>-40</v>
+      </c>
+      <c r="U80">
+        <v>0.365149833518313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="1">
+        <v>31</v>
+      </c>
+      <c r="B81">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81">
+        <v>2017</v>
+      </c>
+      <c r="F81">
+        <v>2024</v>
+      </c>
+      <c r="G81">
+        <v>75</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>20</v>
+      </c>
+      <c r="J81">
+        <v>450</v>
+      </c>
+      <c r="K81">
+        <v>7</v>
+      </c>
+      <c r="L81">
+        <v>-35934</v>
+      </c>
+      <c r="M81">
+        <v>-18138</v>
+      </c>
+      <c r="N81">
+        <v>1433</v>
+      </c>
+      <c r="O81">
+        <v>-17796</v>
+      </c>
+      <c r="P81">
+        <v>-1166</v>
+      </c>
+      <c r="Q81">
+        <v>1932</v>
+      </c>
+      <c r="R81">
+        <v>-12.41870202372645</v>
+      </c>
+      <c r="S81">
+        <v>309.6868764810833</v>
+      </c>
+      <c r="T81">
+        <v>-40</v>
+      </c>
+      <c r="U81">
+        <v>0.3991625959525471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="1">
+        <v>58</v>
+      </c>
+      <c r="B82">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82">
+        <v>2017</v>
+      </c>
+      <c r="F82">
+        <v>2024</v>
+      </c>
+      <c r="G82">
+        <v>85</v>
+      </c>
+      <c r="H82">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>-36758</v>
+      </c>
+      <c r="M82">
+        <v>-21256</v>
+      </c>
+      <c r="N82">
+        <v>4001</v>
+      </c>
+      <c r="O82">
+        <v>-15502</v>
+      </c>
+      <c r="P82">
+        <v>-705</v>
+      </c>
+      <c r="Q82">
+        <v>2275</v>
+      </c>
+      <c r="R82">
+        <v>-3.87453136715821</v>
+      </c>
+      <c r="S82">
+        <v>175.0319505340657</v>
+      </c>
+      <c r="T82">
+        <v>-28</v>
+      </c>
+      <c r="U82">
+        <v>0.1567108222944264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="1">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <v>2017</v>
+      </c>
+      <c r="F83">
+        <v>2024</v>
+      </c>
+      <c r="G83">
+        <v>50</v>
+      </c>
+      <c r="H83">
+        <v>1.8</v>
+      </c>
+      <c r="I83">
+        <v>20</v>
+      </c>
+      <c r="J83">
+        <v>250</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>-37024</v>
+      </c>
+      <c r="M83">
+        <v>-19549</v>
+      </c>
+      <c r="N83">
+        <v>4845</v>
+      </c>
+      <c r="O83">
+        <v>-17475</v>
+      </c>
+      <c r="P83">
+        <v>-1185</v>
+      </c>
+      <c r="Q83">
+        <v>1882</v>
+      </c>
+      <c r="R83">
+        <v>-3.606811145510836</v>
+      </c>
+      <c r="S83">
+        <v>166.6618620413136</v>
+      </c>
+      <c r="T83">
+        <v>-28</v>
+      </c>
+      <c r="U83">
+        <v>0.3325077399380805</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="1">
+        <v>91</v>
+      </c>
+      <c r="B84">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>2017</v>
+      </c>
+      <c r="F84">
+        <v>2024</v>
+      </c>
+      <c r="G84">
+        <v>50</v>
+      </c>
+      <c r="H84">
+        <v>1.2</v>
+      </c>
+      <c r="I84">
+        <v>60</v>
+      </c>
+      <c r="J84">
+        <v>150</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>-37741</v>
+      </c>
+      <c r="M84">
+        <v>-19612</v>
+      </c>
+      <c r="N84">
+        <v>2740</v>
+      </c>
+      <c r="O84">
+        <v>-18129</v>
+      </c>
+      <c r="P84">
+        <v>-838</v>
+      </c>
+      <c r="Q84">
+        <v>2226</v>
+      </c>
+      <c r="R84">
+        <v>-6.616423357664234</v>
+      </c>
+      <c r="S84">
+        <v>197.6941361854168</v>
+      </c>
+      <c r="T84">
+        <v>-35</v>
+      </c>
+      <c r="U84">
+        <v>0.2791970802919708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>2017</v>
+      </c>
+      <c r="F85">
+        <v>2024</v>
+      </c>
+      <c r="G85">
+        <v>25</v>
+      </c>
+      <c r="H85">
+        <v>1.2</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>350</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85">
+        <v>-38350</v>
+      </c>
+      <c r="M85">
+        <v>-20367</v>
+      </c>
+      <c r="N85">
+        <v>598</v>
+      </c>
+      <c r="O85">
+        <v>-17983</v>
+      </c>
+      <c r="P85">
+        <v>-713</v>
+      </c>
+      <c r="Q85">
+        <v>2987</v>
+      </c>
+      <c r="R85">
+        <v>-30.07190635451505</v>
+      </c>
+      <c r="S85">
+        <v>382.2214024817225</v>
+      </c>
+      <c r="T85">
+        <v>-85</v>
+      </c>
+      <c r="U85">
+        <v>0.342809364548495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="1">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>2017</v>
+      </c>
+      <c r="F86">
+        <v>2024</v>
+      </c>
+      <c r="G86">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>2.4</v>
+      </c>
+      <c r="I86">
+        <v>40</v>
+      </c>
+      <c r="J86">
+        <v>50</v>
+      </c>
+      <c r="K86">
+        <v>7</v>
+      </c>
+      <c r="L86">
+        <v>-39453</v>
+      </c>
+      <c r="M86">
+        <v>-19912</v>
+      </c>
+      <c r="N86">
+        <v>1061</v>
+      </c>
+      <c r="O86">
+        <v>-19541</v>
+      </c>
+      <c r="P86">
+        <v>-625</v>
+      </c>
+      <c r="Q86">
+        <v>1876</v>
+      </c>
+      <c r="R86">
+        <v>-18.41753063147974</v>
+      </c>
+      <c r="S86">
+        <v>198.7282232693175</v>
+      </c>
+      <c r="T86">
+        <v>-64</v>
+      </c>
+      <c r="U86">
+        <v>0.1621112158341187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="1">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87">
+        <v>2017</v>
+      </c>
+      <c r="F87">
+        <v>2024</v>
+      </c>
+      <c r="G87">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>2.8</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+      <c r="J87">
+        <v>350</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+      <c r="L87">
+        <v>-44177</v>
+      </c>
+      <c r="M87">
+        <v>-22519</v>
+      </c>
+      <c r="N87">
+        <v>956</v>
+      </c>
+      <c r="O87">
+        <v>-21658</v>
+      </c>
+      <c r="P87">
+        <v>-750</v>
+      </c>
+      <c r="Q87">
+        <v>1895</v>
+      </c>
+      <c r="R87">
+        <v>-22.65481171548117</v>
+      </c>
+      <c r="S87">
+        <v>326.6490895547896</v>
+      </c>
+      <c r="T87">
+        <v>-60</v>
+      </c>
+      <c r="U87">
+        <v>0.3797071129707113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="1">
+        <v>68</v>
+      </c>
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>2017</v>
+      </c>
+      <c r="F88">
+        <v>2024</v>
+      </c>
+      <c r="G88">
+        <v>70</v>
+      </c>
+      <c r="H88">
+        <v>3.8</v>
+      </c>
+      <c r="I88">
+        <v>15</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+      <c r="L88">
+        <v>-44426</v>
+      </c>
+      <c r="M88">
+        <v>-24616</v>
+      </c>
+      <c r="N88">
+        <v>1595</v>
+      </c>
+      <c r="O88">
+        <v>-19810</v>
+      </c>
+      <c r="P88">
+        <v>-701</v>
+      </c>
+      <c r="Q88">
+        <v>2527</v>
+      </c>
+      <c r="R88">
+        <v>-12.42006269592476</v>
+      </c>
+      <c r="S88">
+        <v>227.8886112964331</v>
+      </c>
+      <c r="T88">
+        <v>-106</v>
+      </c>
+      <c r="U88">
+        <v>0.2990595611285267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="1">
+        <v>49</v>
+      </c>
+      <c r="B89">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <v>2017</v>
+      </c>
+      <c r="F89">
+        <v>2024</v>
+      </c>
+      <c r="G89">
+        <v>55</v>
+      </c>
+      <c r="H89">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I89">
+        <v>50</v>
+      </c>
+      <c r="J89">
+        <v>350</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>-49927</v>
+      </c>
+      <c r="M89">
+        <v>-25458</v>
+      </c>
+      <c r="N89">
+        <v>1233</v>
+      </c>
+      <c r="O89">
+        <v>-24469</v>
+      </c>
+      <c r="P89">
+        <v>-1207</v>
+      </c>
+      <c r="Q89">
+        <v>1896</v>
+      </c>
+      <c r="R89">
+        <v>-19.84509326845093</v>
+      </c>
+      <c r="S89">
+        <v>303.4720457855181</v>
+      </c>
+      <c r="T89">
+        <v>-58</v>
+      </c>
+      <c r="U89">
+        <v>0.3706407137064071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="1">
+        <v>69</v>
+      </c>
+      <c r="B90">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90">
+        <v>2017</v>
+      </c>
+      <c r="F90">
+        <v>2024</v>
+      </c>
+      <c r="G90">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I90">
+        <v>20</v>
+      </c>
+      <c r="J90">
+        <v>200</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="L90">
+        <v>-52243</v>
+      </c>
+      <c r="M90">
+        <v>-26392</v>
+      </c>
+      <c r="N90">
+        <v>1483</v>
+      </c>
+      <c r="O90">
+        <v>-25851</v>
+      </c>
+      <c r="P90">
+        <v>-1166</v>
+      </c>
+      <c r="Q90">
+        <v>1839</v>
+      </c>
+      <c r="R90">
+        <v>-17.43155765340526</v>
+      </c>
+      <c r="S90">
+        <v>265.5178908717103</v>
+      </c>
+      <c r="T90">
+        <v>-66</v>
+      </c>
+      <c r="U90">
+        <v>0.3594066082265678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="1">
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>2017</v>
+      </c>
+      <c r="F91">
+        <v>2024</v>
+      </c>
+      <c r="G91">
+        <v>75</v>
+      </c>
+      <c r="H91">
+        <v>2.8</v>
+      </c>
+      <c r="I91">
+        <v>20</v>
+      </c>
+      <c r="J91">
+        <v>200</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>-53157</v>
+      </c>
+      <c r="M91">
+        <v>-28356</v>
+      </c>
+      <c r="N91">
+        <v>2903</v>
+      </c>
+      <c r="O91">
+        <v>-24801</v>
+      </c>
+      <c r="P91">
+        <v>-1196</v>
+      </c>
+      <c r="Q91">
+        <v>1931</v>
+      </c>
+      <c r="R91">
+        <v>-8.543231140199794</v>
+      </c>
+      <c r="S91">
+        <v>211.4341872642396</v>
+      </c>
+      <c r="T91">
+        <v>-39</v>
+      </c>
+      <c r="U91">
+        <v>0.3510161901481226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="1">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>2017</v>
+      </c>
+      <c r="F92">
+        <v>2024</v>
+      </c>
+      <c r="G92">
+        <v>85</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>65</v>
+      </c>
+      <c r="J92">
+        <v>50</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92">
+        <v>-53832</v>
+      </c>
+      <c r="M92">
+        <v>-27250</v>
+      </c>
+      <c r="N92">
+        <v>1094</v>
+      </c>
+      <c r="O92">
+        <v>-26582</v>
+      </c>
+      <c r="P92">
+        <v>-1166</v>
+      </c>
+      <c r="Q92">
+        <v>2527</v>
+      </c>
+      <c r="R92">
+        <v>-24.29798903107861</v>
+      </c>
+      <c r="S92">
+        <v>197.0742926747432</v>
+      </c>
+      <c r="T92">
+        <v>-63</v>
+      </c>
+      <c r="U92">
+        <v>0.1453382084095064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="1">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93">
+        <v>2017</v>
+      </c>
+      <c r="F93">
+        <v>2024</v>
+      </c>
+      <c r="G93">
+        <v>75</v>
+      </c>
+      <c r="H93">
+        <v>3.2</v>
+      </c>
+      <c r="I93">
+        <v>35</v>
+      </c>
+      <c r="J93">
+        <v>500</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+      <c r="L93">
+        <v>-54417</v>
+      </c>
+      <c r="M93">
+        <v>-29399</v>
+      </c>
+      <c r="N93">
+        <v>1166</v>
+      </c>
+      <c r="O93">
+        <v>-25018</v>
+      </c>
+      <c r="P93">
+        <v>-1222</v>
+      </c>
+      <c r="Q93">
+        <v>1690</v>
+      </c>
+      <c r="R93">
+        <v>-21.45626072041166</v>
+      </c>
+      <c r="S93">
+        <v>319.651481615877</v>
+      </c>
+      <c r="T93">
+        <v>-51</v>
+      </c>
+      <c r="U93">
+        <v>0.3825042881646655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="1">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94">
+        <v>2017</v>
+      </c>
+      <c r="F94">
+        <v>2024</v>
+      </c>
+      <c r="G94">
+        <v>25</v>
+      </c>
+      <c r="H94">
+        <v>3.8</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="J94">
+        <v>450</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="L94">
+        <v>-54501</v>
+      </c>
+      <c r="M94">
+        <v>-27887</v>
+      </c>
+      <c r="N94">
+        <v>973</v>
+      </c>
+      <c r="O94">
+        <v>-26614</v>
+      </c>
+      <c r="P94">
+        <v>-1177</v>
+      </c>
+      <c r="Q94">
+        <v>2328</v>
+      </c>
+      <c r="R94">
+        <v>-27.35251798561151</v>
+      </c>
+      <c r="S94">
+        <v>341.1998508473047</v>
+      </c>
+      <c r="T94">
+        <v>-59</v>
+      </c>
+      <c r="U94">
+        <v>0.3895169578622816</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="1">
+        <v>59</v>
+      </c>
+      <c r="B95">
+        <v>70</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <v>2017</v>
+      </c>
+      <c r="F95">
+        <v>2024</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>2.2</v>
+      </c>
+      <c r="I95">
+        <v>85</v>
+      </c>
+      <c r="J95">
+        <v>50</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>-69733</v>
+      </c>
+      <c r="M95">
+        <v>-34937</v>
+      </c>
+      <c r="N95">
+        <v>1621</v>
+      </c>
+      <c r="O95">
+        <v>-34796</v>
+      </c>
+      <c r="P95">
+        <v>-454</v>
+      </c>
+      <c r="Q95">
+        <v>1484</v>
+      </c>
+      <c r="R95">
+        <v>-21.46576187538556</v>
+      </c>
+      <c r="S95">
+        <v>155.3530999268075</v>
+      </c>
+      <c r="T95">
+        <v>-60</v>
+      </c>
+      <c r="U95">
+        <v>0.1745835903763109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="1">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96">
+        <v>2017</v>
+      </c>
+      <c r="F96">
+        <v>2024</v>
+      </c>
+      <c r="G96">
+        <v>30</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>20</v>
+      </c>
+      <c r="J96">
+        <v>50</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="L96">
+        <v>-70830</v>
+      </c>
+      <c r="M96">
+        <v>-35415</v>
+      </c>
+      <c r="N96">
+        <v>1430</v>
+      </c>
+      <c r="O96">
+        <v>-35415</v>
+      </c>
+      <c r="P96">
+        <v>-628</v>
+      </c>
+      <c r="Q96">
+        <v>1920</v>
+      </c>
+      <c r="R96">
+        <v>-24.76573426573427</v>
+      </c>
+      <c r="S96">
+        <v>173.7017307726434</v>
+      </c>
+      <c r="T96">
+        <v>-63</v>
+      </c>
+      <c r="U96">
+        <v>0.1706293706293706</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="1">
+        <v>81</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97">
+        <v>2017</v>
+      </c>
+      <c r="F97">
+        <v>2024</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>3.4</v>
+      </c>
+      <c r="I97">
+        <v>70</v>
+      </c>
+      <c r="J97">
+        <v>50</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>-108126</v>
+      </c>
+      <c r="M97">
+        <v>-54063</v>
+      </c>
+      <c r="N97">
+        <v>4649</v>
+      </c>
+      <c r="O97">
+        <v>-54063</v>
+      </c>
+      <c r="P97">
+        <v>-1146</v>
+      </c>
+      <c r="Q97">
+        <v>1627</v>
+      </c>
+      <c r="R97">
+        <v>-11.62895246289525</v>
+      </c>
+      <c r="S97">
+        <v>145.6751077842837</v>
+      </c>
+      <c r="T97">
+        <v>-31</v>
+      </c>
+      <c r="U97">
+        <v>0.1537965153796515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="1">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98">
+        <v>2017</v>
+      </c>
+      <c r="F98">
+        <v>2024</v>
+      </c>
+      <c r="G98">
+        <v>70</v>
+      </c>
+      <c r="H98">
+        <v>2.2</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>-118272</v>
+      </c>
+      <c r="M98">
+        <v>-59136</v>
+      </c>
+      <c r="N98">
+        <v>2720</v>
+      </c>
+      <c r="O98">
+        <v>-59136</v>
+      </c>
+      <c r="P98">
+        <v>-1066</v>
+      </c>
+      <c r="Q98">
+        <v>2574</v>
+      </c>
+      <c r="R98">
+        <v>-21.74117647058824</v>
+      </c>
+      <c r="S98">
+        <v>154.5695966749703</v>
+      </c>
+      <c r="T98">
+        <v>-60</v>
+      </c>
+      <c r="U98">
+        <v>0.2165441176470588</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="1">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99">
+        <v>2017</v>
+      </c>
+      <c r="F99">
+        <v>2024</v>
+      </c>
+      <c r="G99">
+        <v>30</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>50</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>-141451</v>
+      </c>
+      <c r="M99">
+        <v>-71165</v>
+      </c>
+      <c r="N99">
+        <v>4330</v>
+      </c>
+      <c r="O99">
+        <v>-70286</v>
+      </c>
+      <c r="P99">
+        <v>-1196</v>
+      </c>
+      <c r="Q99">
+        <v>1084</v>
+      </c>
+      <c r="R99">
+        <v>-16.23233256351039</v>
+      </c>
+      <c r="S99">
+        <v>133.5136137313459</v>
+      </c>
+      <c r="T99">
+        <v>-57</v>
+      </c>
+      <c r="U99">
+        <v>0.2595842956120092</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="1">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100">
+        <v>2017</v>
+      </c>
+      <c r="F100">
+        <v>2024</v>
+      </c>
+      <c r="G100">
+        <v>35</v>
+      </c>
+      <c r="H100">
+        <v>2.8</v>
+      </c>
+      <c r="I100">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <v>50</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>-143033</v>
+      </c>
+      <c r="M100">
+        <v>-71884</v>
+      </c>
+      <c r="N100">
+        <v>6774</v>
+      </c>
+      <c r="O100">
+        <v>-71149</v>
+      </c>
+      <c r="P100">
+        <v>-1146</v>
+      </c>
+      <c r="Q100">
+        <v>1916</v>
+      </c>
+      <c r="R100">
+        <v>-10.50324771183939</v>
+      </c>
+      <c r="S100">
+        <v>136.1117339105688</v>
+      </c>
+      <c r="T100">
+        <v>-30</v>
+      </c>
+      <c r="U100">
+        <v>0.2004723944493652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="1">
+        <v>39</v>
+      </c>
+      <c r="B101">
+        <v>47</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>2017</v>
+      </c>
+      <c r="F101">
+        <v>2024</v>
+      </c>
+      <c r="G101">
+        <v>55</v>
+      </c>
+      <c r="H101">
+        <v>2.8</v>
+      </c>
+      <c r="I101">
+        <v>15</v>
+      </c>
+      <c r="J101">
+        <v>50</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
         <v>-230110</v>
       </c>
-      <c r="M75">
+      <c r="M101">
         <v>-115259</v>
       </c>
-      <c r="N75">
+      <c r="N101">
         <v>8268</v>
       </c>
-      <c r="O75">
+      <c r="O101">
         <v>-114851</v>
       </c>
-      <c r="P75">
+      <c r="P101">
         <v>-1133</v>
       </c>
-      <c r="Q75">
+      <c r="Q101">
         <v>1125</v>
       </c>
-      <c r="R75">
+      <c r="R101">
         <v>-13.89102564102564</v>
       </c>
-      <c r="S75">
+      <c r="S101">
         <v>118.3727971770823</v>
       </c>
-      <c r="T75">
+      <c r="T101">
         <v>-31</v>
       </c>
-      <c r="U75">
+      <c r="U101">
         <v>0.2233913884857281</v>
       </c>
     </row>
